--- a/res/proj/log.xlsx
+++ b/res/proj/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/atao9_gatech_edu/Documents/work/aelu419.github.io/res/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="14_{2E58CE36-94EC-49E7-8F55-AE4774DA5BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{255D39F6-7F09-45AE-8D6F-1D417B5E8D02}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="14_{2E58CE36-94EC-49E7-8F55-AE4774DA5BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{96478D1A-A05A-4B28-9E8A-F6FE680F6584}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="120" windowWidth="9450" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="major" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>title</t>
   </si>
@@ -52,24 +52,6 @@
     <t>release</t>
   </si>
   <si>
-    <t>spartapp</t>
-  </si>
-  <si>
-    <t>Spartapp</t>
-  </si>
-  <si>
-    <t>Cofounder, Developer</t>
-  </si>
-  <si>
-    <t>A cross-platform mobile app visualizing student schedules and broadcasting school organizations messages.</t>
-  </si>
-  <si>
-    <t>https://github.com/THISSpartans/Spartapp.git</t>
-  </si>
-  <si>
-    <t>https://apps.apple.com/cn/app/spartapp/id1375235752?l=en</t>
-  </si>
-  <si>
     <t>gravassist</t>
   </si>
   <si>
@@ -82,9 +64,6 @@
     <t>Frontend Developer</t>
   </si>
   <si>
-    <t>spring 18 - winter 19</t>
-  </si>
-  <si>
     <t>winter 19 - summer 20</t>
   </si>
   <si>
@@ -134,9 +113,6 @@
   </si>
   <si>
     <t>Unity, Git</t>
-  </si>
-  <si>
-    <t>Android, Cloud Database, Git</t>
   </si>
   <si>
     <t>Sci-py, QT, OpenGL</t>
@@ -220,9 +196,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,120 +527,94 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -677,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31780FA2-6461-4C17-A77B-A095EF2BF9F2}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,42 +639,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/res/proj/log.xlsx
+++ b/res/proj/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/atao9_gatech_edu/Documents/work/aelu419.github.io/res/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="14_{2E58CE36-94EC-49E7-8F55-AE4774DA5BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{96478D1A-A05A-4B28-9E8A-F6FE680F6584}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="14_{2E58CE36-94EC-49E7-8F55-AE4774DA5BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A00C8CE3-BD1C-432D-8D6D-576EB11650E0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="major" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>winter 20 - summer 21</t>
   </si>
   <si>
-    <t>An experimental typing-driven game. Built script-driven generators for graphics, music, and text. Explored modes of interactive story-telling.</t>
-  </si>
-  <si>
     <t>Unity, Git</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>handpose</t>
   </si>
   <si>
-    <t>ASL Symbol Recognizer</t>
-  </si>
-  <si>
     <t>Backend Developer</t>
   </si>
   <si>
@@ -161,6 +155,12 @@
   </si>
   <si>
     <t>procedural_spread</t>
+  </si>
+  <si>
+    <t>ASL Gesture Recognizer</t>
+  </si>
+  <si>
+    <t>An experimental typing-driven game, with focus on generative graphics, music, and text. Explored modes of interactive story-telling.</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -570,25 +570,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -614,7 +614,7 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -639,42 +639,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/res/proj/log.xlsx
+++ b/res/proj/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/atao9_gatech_edu/Documents/work/aelu419.github.io/res/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="14_{2E58CE36-94EC-49E7-8F55-AE4774DA5BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A00C8CE3-BD1C-432D-8D6D-576EB11650E0}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="14_{2E58CE36-94EC-49E7-8F55-AE4774DA5BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48E71F45-57EC-421D-864C-AE9866F2D7F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>title</t>
   </si>
@@ -76,12 +76,6 @@
     <t>fall 20</t>
   </si>
   <si>
-    <t>A desktop app visualizing NASA planetary data and simulating spaceflight trajectories. Built UI and 3D graphics.</t>
-  </si>
-  <si>
-    <t>An atmospheric puzzle-solving game. Built animated visual effects driven by script.</t>
-  </si>
-  <si>
     <t>https://github.com/aelu419/Lunacia.git</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>https://github.com/aelu419/handpose-localhack.git</t>
   </si>
   <si>
-    <t>A web-app recognizing sign language letters and numbers using computer vision. Trained and combined neural networks to locate the hand and determine most probable pose.</t>
-  </si>
-  <si>
     <t>aurora</t>
   </si>
   <si>
@@ -160,7 +151,25 @@
     <t>ASL Gesture Recognizer</t>
   </si>
   <si>
-    <t>An experimental typing-driven game, with focus on generative graphics, music, and text. Explored modes of interactive story-telling.</t>
+    <t>bongocat</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>particle_fish</t>
+  </si>
+  <si>
+    <t>A desktop app visualizing NASA planetary data and visualizing/simulating spaceflight trajectories. This includes approximating gravitational assists by nearby planets. Built UI and 3D graphics.</t>
+  </si>
+  <si>
+    <t>An atmospheric puzzle-solving game. Contributed to various animated visual effects driven by script.</t>
+  </si>
+  <si>
+    <t>A web-app recognizing sign language letters and numbers using computer vision. Trained and combined neural networks to locate the hand and determine most probable sign language letter and number.</t>
+  </si>
+  <si>
+    <t>An experimental typing-driven game, with focus on generative graphics, music, and text in the form of shaders, song generators, and text generators. Explored modes of interactive story-telling and creative writing.</t>
   </si>
 </sst>
 </file>
@@ -196,8 +205,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +493,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -533,16 +545,16 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -556,65 +568,65 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -624,13 +636,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31780FA2-6461-4C17-A77B-A095EF2BF9F2}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -639,42 +654,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/res/proj/log.xlsx
+++ b/res/proj/log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/atao9_gatech_edu/Documents/work/aelu419.github.io/res/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="14_{2E58CE36-94EC-49E7-8F55-AE4774DA5BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48E71F45-57EC-421D-864C-AE9866F2D7F6}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="14_{2E58CE36-94EC-49E7-8F55-AE4774DA5BAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D75D3218-CA71-4887-9B8F-5C801BEEAD4E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9450" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="major" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>title</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>An experimental typing-driven game, with focus on generative graphics, music, and text in the form of shaders, song generators, and text generators. Explored modes of interactive story-telling and creative writing.</t>
+  </si>
+  <si>
+    <t>bifract</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -638,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31780FA2-6461-4C17-A77B-A095EF2BF9F2}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,32 +687,32 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
